--- a/identifycourses/excel/Identify_Courses.xlsx
+++ b/identifycourses/excel/Identify_Courses.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="12648" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
-    <sheet name="Web_Development" r:id="rId1" sheetId="2"/>
-    <sheet name="Languages" r:id="rId2" sheetId="3"/>
-    <sheet name="Levels" r:id="rId3" sheetId="4"/>
+    <sheet name="Web_Development" sheetId="2" r:id="rId1"/>
+    <sheet name="Languages" sheetId="3" r:id="rId2"/>
+    <sheet name="Levels" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="65">
   <si>
     <t>English</t>
   </si>
@@ -183,6 +183,39 @@
   </si>
   <si>
     <t>Advanced</t>
+  </si>
+  <si>
+    <t>Total Languages</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development</t>
+  </si>
+  <si>
+    <t>Approx. 22 hours to complete</t>
+  </si>
+  <si>
+    <t>Course Name</t>
+  </si>
+  <si>
+    <t>Course Rating</t>
+  </si>
+  <si>
+    <t>Course Duration</t>
+  </si>
+  <si>
+    <t>Languages</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Levels</t>
+  </si>
+  <si>
+    <t>Web Design for Everybody: Basics of Web Development &amp; Coding</t>
+  </si>
+  <si>
+    <t>Approximately 6 months to complete</t>
   </si>
 </sst>
 </file>
@@ -217,16 +250,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -243,10 +276,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -281,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -316,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,21 +443,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +474,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -493,34 +526,69 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="59.5390625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="34.41015625" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -532,58 +600,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="n">
-        <v>1237.0</v>
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>624.0</v>
+        <v>1249.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>614.0</v>
+        <v>633.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579.0</v>
+        <v>618.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>536.0</v>
+        <v>581.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>483.0</v>
+        <v>539.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="8">
@@ -591,116 +659,116 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>474.0</v>
+        <v>476.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>456.0</v>
+        <v>475.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>138.0</v>
+        <v>458.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>125.0</v>
+        <v>135.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>68.0</v>
+        <v>126.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>61.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>55.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>41.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>19.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>12.0</v>
@@ -708,7 +776,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>12.0</v>
@@ -716,15 +784,15 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>9.0</v>
@@ -732,15 +800,15 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" t="n">
         <v>8.0</v>
@@ -748,23 +816,23 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>6.0</v>
@@ -772,7 +840,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>6.0</v>
@@ -780,7 +848,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>6.0</v>
@@ -788,7 +856,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>6.0</v>
@@ -796,15 +864,15 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>5.0</v>
@@ -812,7 +880,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>5.0</v>
@@ -820,23 +888,23 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>3.0</v>
@@ -844,7 +912,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>3.0</v>
@@ -852,7 +920,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>3.0</v>
@@ -860,7 +928,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>3.0</v>
@@ -868,15 +936,15 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>2.0</v>
@@ -884,7 +952,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>2.0</v>
@@ -892,15 +960,15 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>1.0</v>
@@ -908,7 +976,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>1.0</v>
@@ -916,7 +984,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>1.0</v>
@@ -924,20 +992,36 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>1.0</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6259.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N9" sqref="N9"/>
@@ -945,42 +1029,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.7421875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.4296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" t="n">
-        <v>591.0</v>
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>584.0</v>
+        <v>602.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
-        <v>157.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="n">
+        <v>156.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B5" t="n">
         <v>59.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1406.0</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>